--- a/DbLayouts/L6-共同作業/CdBaseRate.xlsx
+++ b/DbLayouts/L6-共同作業/CdBaseRate.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1750B151-96E3-45BC-AE4B-9803C4D9DFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -259,12 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0:已放行 
-1:已生效不可刪除
-2:未放行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CurrencyCode = ,AND BaseRateCode = ,AND EffectDate &gt;= ,AND EffectDate &lt;=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,11 +279,17 @@
 03:台北金融業拆款定盤利率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0:已放行(生效日期&gt;會計日:未生效 else 已生效)
+1:已使用(不可刪除)
+2:未放行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -668,23 +667,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -720,23 +702,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -912,24 +877,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="4"/>
-    <col min="9" max="9" width="42.6640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="21.44140625" style="4"/>
+    <col min="3" max="3" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="4"/>
+    <col min="9" max="9" width="42.625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="21.5" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -960,7 +925,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="48.6">
+    <row r="3" spans="1:7" ht="33">
       <c r="A3" s="33" t="s">
         <v>22</v>
       </c>
@@ -1042,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32.4">
+    <row r="9" spans="1:7" ht="33">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1062,7 +1027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="81">
+    <row r="10" spans="1:7" ht="66">
       <c r="A10" s="3">
         <f t="shared" ref="A10:A18" si="0">A9+1</f>
         <v>2</v>
@@ -1080,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1143,7 +1108,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="48.6">
+    <row r="14" spans="1:7" ht="49.5">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1161,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1254,7 +1219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -1262,11 +1227,11 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="83" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1283,10 +1248,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
@@ -1349,10 +1314,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>51</v>

--- a/DbLayouts/L6-共同作業/CdBaseRate.xlsx
+++ b/DbLayouts/L6-共同作業/CdBaseRate.xlsx
@@ -5,22 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9708"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>備註說明</t>
   </si>
@@ -72,11 +80,11 @@
   </si>
   <si>
     <t>幣別</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>利率代碼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生效日期</t>
@@ -280,7 +288,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0:已放行(生效日期&gt;會計日:未生效 else 已生效)
+    <t>effectFlagDescFirst1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyCode = ,AND BaseRateCode =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:已放行(生效日期&gt;日曆日:未生效 else 已生效)
 1:已使用(不可刪除)
 2:未放行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,13 +343,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -343,23 +352,23 @@
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="3"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -471,107 +480,104 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,327 +886,327 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="4"/>
-    <col min="9" max="9" width="42.625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="21.5" style="4"/>
+    <col min="1" max="1" width="5.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="8"/>
+    <col min="9" max="9" width="42.6640625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="21.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="10" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" ht="33">
-      <c r="A3" s="33" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="30" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="33">
-      <c r="A9" s="3">
+    <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="66">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <f t="shared" ref="A10:A18" si="0">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="21">
         <v>2</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="21">
         <v>8</v>
       </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3">
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="21">
         <v>6</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="21">
         <v>4</v>
       </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="21">
         <v>40</v>
       </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="49.5">
-      <c r="A14" s="3">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="21">
         <v>1</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3">
+      <c r="G14" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="21">
         <v>6</v>
       </c>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="21">
         <v>6</v>
       </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="C19" s="27"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1220,107 +1226,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="83" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
